--- a/data/Gustavo CastilloT3-2025.xlsx
+++ b/data/Gustavo CastilloT3-2025.xlsx
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>29.68788072</v>
+        <v>0.8765341299999999</v>
       </c>
     </row>
   </sheetData>
